--- a/ドキュメント/02 詳細設計/画面設計書.xlsx
+++ b/ドキュメント/02 詳細設計/画面設計書.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2931403-E2A8-4C55-934C-6E39913B9DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingRecordApp\ドキュメント\02 詳細設計\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C382344-3AF9-49A5-8C9B-69FB5E0EE1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +39,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -431,8 +443,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -451,7 +463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="762000"/>
-          <a:ext cx="5334000" cy="4943475"/>
+          <a:ext cx="5334000" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,7 +770,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-lt"/>
@@ -769,7 +781,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -778,13 +790,659 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
             <a:t>. All Rights Reserved. | Privacy Policy | Terms of Service</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8447BAE1-786B-40A4-8908-7D9FEF69726D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6EA6AB4-14B0-B781-961A-6D3F0FB969BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="1714500"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872E9E26-F226-4A20-8291-5925751410D0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6EA6AB4-14B0-B781-961A-6D3F0FB969BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="1333500"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA03F229-E0EB-4E75-9F54-2FD39A05E8AA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6EA6AB4-14B0-B781-961A-6D3F0FB969BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="2857500"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC415DF-F493-4F56-8002-641A891CFF5A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6EA6AB4-14B0-B781-961A-6D3F0FB969BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="2476500"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B793A6-B97C-4135-9F18-2ABFE44D5AB0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6EA6AB4-14B0-B781-961A-6D3F0FB969BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="3619500"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>新規登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -944,14 +1602,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -969,7 +1627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3495675" y="171450"/>
+          <a:off x="3495675" y="190500"/>
           <a:ext cx="1647825" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1075,7 +1733,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
@@ -1099,8 +1757,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2486025"/>
-          <a:ext cx="5334000" cy="4943475"/>
+          <a:off x="0" y="2476500"/>
+          <a:ext cx="5334000" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1407,7 +2065,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-lt"/>
@@ -1418,7 +2076,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -1427,7 +2085,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-lt"/>
@@ -1442,16 +2100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1469,8 +2127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4181475" y="561975"/>
-          <a:ext cx="952500" cy="361950"/>
+          <a:off x="4191000" y="571500"/>
+          <a:ext cx="952500" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,16 +2171,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1540,8 +2198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4181475" y="923925"/>
-          <a:ext cx="952500" cy="361950"/>
+          <a:off x="4191000" y="952500"/>
+          <a:ext cx="952500" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1678,16 +2336,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1705,8 +2363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4171950" y="1295400"/>
-          <a:ext cx="952500" cy="361950"/>
+          <a:off x="4191000" y="1333500"/>
+          <a:ext cx="952500" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1843,16 +2501,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1870,8 +2528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4181475" y="1666875"/>
-          <a:ext cx="952500" cy="361950"/>
+          <a:off x="4191000" y="1714500"/>
+          <a:ext cx="952500" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2008,16 +2666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2035,8 +2693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4181475" y="2038350"/>
-          <a:ext cx="952500" cy="361950"/>
+          <a:off x="4191000" y="2095500"/>
+          <a:ext cx="952500" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,15 +2832,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2200,8 +2858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="3067050"/>
-          <a:ext cx="4905375" cy="800100"/>
+          <a:off x="190500" y="3048000"/>
+          <a:ext cx="4953000" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2306,15 +2964,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2332,7 +2990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="2686050"/>
+          <a:off x="190500" y="2667000"/>
           <a:ext cx="1905000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2439,16 +3097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2466,7 +3124,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="4210050"/>
+          <a:off x="190500" y="4191000"/>
           <a:ext cx="1905000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2573,16 +3231,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2600,8 +3258,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="4591050"/>
-          <a:ext cx="4933950" cy="1857375"/>
+          <a:off x="190500" y="4572001"/>
+          <a:ext cx="4953000" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2868,6 +3526,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753BC3E7-343E-E2B4-F342-DE167A69E778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1311640" y="4953000"/>
+          <a:ext cx="2498360" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3194,12 +3902,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3207,13 +3917,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590CBEA3-C703-46A3-A92B-A3C256BF32D5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3223,15 +3936,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DCAC6D-0594-486A-AE0C-72E82343E6E4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AF37" sqref="AF37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ドキュメント/02 詳細設計/画面設計書.xlsx
+++ b/ドキュメント/02 詳細設計/画面設計書.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingRecordApp\ドキュメント\02 詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C382344-3AF9-49A5-8C9B-69FB5E0EE1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D11C5CC-DF3C-4370-B416-EAEAC639AD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ログイン" sheetId="4" r:id="rId2"/>
-    <sheet name="トップページ（ホーム）" sheetId="3" r:id="rId3"/>
+    <sheet name="新規登録" sheetId="5" r:id="rId3"/>
+    <sheet name="トップページ（ホーム）" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,7 +956,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872E9E26-F226-4A20-8291-5925751410D0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6EA6AB4-14B0-B781-961A-6D3F0FB969BF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8447BAE1-786B-40A4-8908-7D9FEF69726D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1056,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>メールアドレス</a:t>
+            <a:t>ユーザー名</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1453,6 +1454,4277 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C511BC-B273-47CC-BDA9-B16258316B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5334000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="10000"/>
+            <a:lumOff val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FD02EE-A8A5-42CD-BCFB-7C21EC831AB9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C0C511BC-B273-47CC-BDA9-B16258316B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ロゴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8188889C-2179-422A-8D73-B82E5B5E913F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{49FD02EE-A8A5-42CD-BCFB-7C21EC831AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="762000"/>
+          <a:ext cx="5334000" cy="6829425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="10000"/>
+            <a:lumOff val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAFCB77-F663-4A22-BEF3-F8AD5A0987E0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8188889C-2179-422A-8D73-B82E5B5E913F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7600950"/>
+          <a:ext cx="5334000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="10000"/>
+            <a:lumOff val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>© 2024 K</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>azuhikoDemura</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>. All Rights Reserved. | Privacy Policy | Terms of Service</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2174D0AC-82D1-4C30-9536-81864983DF9C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FAAFCB77-F663-4A22-BEF3-F8AD5A0987E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="1000125"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA76369-6932-49F6-A7AE-8A5606A6A536}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2174D0AC-82D1-4C30-9536-81864983DF9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="190500"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ユーザー登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49D66EF-6EDA-41A0-BA99-B2C73D0AF2BD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1DA76369-6932-49F6-A7AE-8A5606A6A536}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="1495425"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEDE9F6-887D-497D-90D1-D89DB0D1C0E7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F49D66EF-6EDA-41A0-BA99-B2C73D0AF2BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="1466850"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F32AA9A-BAB2-474A-BB7D-FE9273AC1B9C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0BEDE9F6-887D-497D-90D1-D89DB0D1C0E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="6915150"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E465F1-9474-420F-AB26-BD1DB7FAAEAE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8F32AA9A-BAB2-474A-BB7D-FE9273AC1B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="990600"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ユーザー名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28623D17-EC13-4407-838D-C71425E9EDA4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B8E465F1-9474-420F-AB26-BD1DB7FAAEAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="1924050"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71A8464-0FF4-4B1D-A047-DE109461AF70}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{28623D17-EC13-4407-838D-C71425E9EDA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="1990725"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FF53C9-6912-4225-BB43-9F723147CC68}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F71A8464-0FF4-4B1D-A047-DE109461AF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="2390775"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>パスワード（確認）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C54215D-BB7F-4C5F-B856-3A85B456B4B2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{07FF53C9-6912-4225-BB43-9F723147CC68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="2476500"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECA09B8-61B2-4804-B4D0-65ACC019DEA7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2C54215D-BB7F-4C5F-B856-3A85B456B4B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="6905625"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4615918-0A7F-4506-A11F-D6DB464B75E6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AECA09B8-61B2-4804-B4D0-65ACC019DEA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="2952750"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>姓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E30AEDB-9A90-43C1-9555-B435AA23C9D4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B4615918-0A7F-4506-A11F-D6DB464B75E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="3000375"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8676B368-F77F-4A6F-A6AB-438D9614DA0F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4E30AEDB-9A90-43C1-9555-B435AA23C9D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="3552825"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFC2D74-E9DC-4FC2-B03D-F8C172F0F193}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8676B368-F77F-4A6F-A6AB-438D9614DA0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="3533775"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB56F91-B4DC-4AFE-9BD4-449CDE13DAFD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CAFC2D74-E9DC-4FC2-B03D-F8C172F0F193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="4057650"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>年齢</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DCCF17-4E44-4D7E-8697-80BDF0A59951}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DFB56F91-B4DC-4AFE-9BD4-449CDE13DAFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="4048125"/>
+          <a:ext cx="619125" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="二等辺三角形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6D5996-C954-4A23-9724-04DAA121235D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40DCCF17-4E44-4D7E-8697-80BDF0A59951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10772717">
+          <a:off x="2409825" y="4162425"/>
+          <a:ext cx="161925" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B064AD-FA40-4EC3-9E9E-4DFB2A8912EA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8A6D5996-C954-4A23-9724-04DAA121235D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="4505325"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>性別</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AADFCF-5DFA-4005-95AE-1D76B5F3FFF3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{44B064AD-FA40-4EC3-9E9E-4DFB2A8912EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="4486275"/>
+          <a:ext cx="619125" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="二等辺三角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057E820B-7773-4D56-BDE9-806EA565A862}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{34AADFCF-5DFA-4005-95AE-1D76B5F3FFF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10772717">
+          <a:off x="2419350" y="4600575"/>
+          <a:ext cx="161925" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F65D32B-BD19-4876-A161-1AC0DA5A0971}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{057E820B-7773-4D56-BDE9-806EA565A862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5000625"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>体重（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>kg）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3268D6B1-0D65-4C16-AFD4-DEA81DBF26BD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9F65D32B-BD19-4876-A161-1AC0DA5A0971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="4991100"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E84906-CC67-4E8F-9915-BBA9C0C417EB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3268D6B1-0D65-4C16-AFD4-DEA81DBF26BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5419725"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>身長（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>cm）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86509115-F274-4613-87FA-6F0C2500F688}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{23E84906-CC67-4E8F-9915-BBA9C0C417EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="5438775"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87311F09-D02A-4F2C-8517-E136EEFD2208}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86509115-F274-4613-87FA-6F0C2500F688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="5953125"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>プロフィール画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19686E8D-63A4-4901-A03A-747CCC764E0D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{87311F09-D02A-4F2C-8517-E136EEFD2208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="5934075"/>
+          <a:ext cx="1905000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ファイルを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3902,7 +8174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
@@ -3917,11 +8189,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590CBEA3-C703-46A3-A92B-A3C256BF32D5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO20" sqref="AO20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
@@ -3933,6 +8205,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B41CE2-296B-4E49-BB78-E5A2582458B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AE35" sqref="AE35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="2.5" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DCAC6D-0594-486A-AE0C-72E82343E6E4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3940,7 +8231,7 @@
       <selection activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
